--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value146.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value146.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9415084925631716</v>
+        <v>0.6829547882080078</v>
       </c>
       <c r="B1">
-        <v>1.813058682073288</v>
+        <v>2.016331195831299</v>
       </c>
       <c r="C1">
-        <v>2.841231739664372</v>
+        <v>4.806789398193359</v>
       </c>
       <c r="D1">
-        <v>2.673848645376463</v>
+        <v>1.837946772575378</v>
       </c>
       <c r="E1">
-        <v>1.000259820406856</v>
+        <v>1.219586253166199</v>
       </c>
     </row>
   </sheetData>
